--- a/biology/Botanique/Rosa/Rosa.xlsx
+++ b/biology/Botanique/Rosa/Rosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -514,7 +526,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rosa est le nom de genre scientifique des rosiers.
 Rosa  est le nom d'une variété ancienne de pomme de terre.</t>
@@ -545,7 +559,9 @@
           <t>Prénom et patronyme de personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa est un prénom synonyme, sous sa forme latine, du prénom Rose et porté notamment par :
 Rosa Bonheur (1822-1899), peintre française.
@@ -616,22 +632,12 @@
           <t>Toponyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Diverses localités portent le nom de Rosa :
-Allemagne
-Rosa, village de l'arrondissement de Schmalkalden-Meiningen, situé dans le Land de Thuringe.
-Bulgarie
-Le nom étant écrit Роза :
-Rosa, village de l'obchtina de Toundja, situé dans l'oblast de Yambol.
-États-Unis
-Rosa, village du comté de Blount, situé dans l'État de l'Alabama.
-Rosa, localité de l'État de Louisiane.
-Russie
-Roza, dans l'Oblast de Tcheliabinsk
-Roza, dans l'Oblast de Lipetsk
-Venezuela
-La Rosa, dans la municipalité de Cabimas</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diverses localités portent le nom de Rosa :
+</t>
         </is>
       </c>
     </row>
@@ -656,10 +662,195 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Toponyme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rosa, village de l'arrondissement de Schmalkalden-Meiningen, situé dans le Land de Thuringe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Toponyme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bulgarie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom étant écrit Роза :
+Rosa, village de l'obchtina de Toundja, situé dans l'oblast de Yambol.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Toponyme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rosa, village du comté de Blount, situé dans l'État de l'Alabama.
+Rosa, localité de l'État de Louisiane.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Toponyme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Roza, dans l'Oblast de Tcheliabinsk
+Roza, dans l'Oblast de Lipetsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Toponyme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Rosa, dans la municipalité de Cabimas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Rosa est un titre d'œuvre notamment porté par :
 Rosa est une chanson composée par Jacques Brel. Cette chanson n'est pas consacrée au prénom ou à une personne nommée Rosa, mais à la déclinaison du nom commun latin qui signifie la rose.
@@ -672,61 +863,65 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rosa</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rosa</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Robot médical</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>ROSA robot de neurochirurgie.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rosa</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rosa</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Aérospatiale et astronomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>ROSA est l'abréviation anglaise de Romanian Space Agency, l'Agence spatiale roumaine;
 ROSA est un type de panneau solaire utilisé sur les engins spatiaux.
@@ -734,31 +929,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rosa</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rosa</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Informatique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">ROSA (POCA en russe) est une distribution GNU/Linux d'origine russe dérivée de Mandriva Linux.
  Portail de la botanique                     </t>
